--- a/PVT_data/High precise EOS polar data.xlsx
+++ b/PVT_data/High precise EOS polar data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>matter</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>R245fa CF3CH2CF2H</t>
+  </si>
+  <si>
+    <t>WATER</t>
   </si>
   <si>
     <t>R23 CHF3</t>
@@ -130,7 +133,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -168,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -189,12 +192,15 @@
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -520,26 +526,26 @@
     <col min="13" max="13" style="8" width="14.576428571428572" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="8" width="11.290714285714287" customWidth="1" bestFit="1"/>
     <col min="15" max="15" style="8" width="12.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="32" max="32" style="9" width="14.005" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +591,9 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3"/>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -602,12 +610,12 @@
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
       <c r="AF1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5">
         <v>471.06</v>
@@ -651,7 +659,9 @@
       <c r="O2" s="5">
         <v>427.16</v>
       </c>
-      <c r="P2" s="3"/>
+      <c r="P2" s="5">
+        <v>647.3</v>
+      </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
@@ -671,9 +681,9 @@
         <v>299.747</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="5">
         <v>43.94</v>
@@ -717,7 +727,9 @@
       <c r="O3" s="5">
         <v>36.537</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="5">
+        <v>221.287</v>
+      </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
@@ -737,9 +749,9 @@
         <v>48.69</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5">
         <v>247.94</v>
@@ -783,7 +795,9 @@
       <c r="O4" s="5">
         <v>257.45</v>
       </c>
-      <c r="P4" s="3"/>
+      <c r="P4" s="5">
+        <v>57.06</v>
+      </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
@@ -803,9 +817,9 @@
         <v>133.115</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5">
         <v>137.368</v>
@@ -849,7 +863,9 @@
       <c r="O5" s="5">
         <v>134.05</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="5">
+        <v>18.016</v>
+      </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
@@ -869,9 +885,9 @@
         <v>70.013</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5">
         <v>0.18691</v>
@@ -915,7 +931,9 @@
       <c r="O6" s="5">
         <v>0.37844</v>
       </c>
-      <c r="P6" s="3"/>
+      <c r="P6" s="5">
+        <v>0.34486</v>
+      </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -935,9 +953,9 @@
         <v>0.2584</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5">
         <v>1.0656383</v>
@@ -981,7 +999,7 @@
       <c r="O7" s="5">
         <v>1.2904</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="6"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -999,9 +1017,9 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5">
         <v>-3.2495206</v>
@@ -1045,7 +1063,7 @@
       <c r="O8" s="5">
         <v>-3.2154</v>
       </c>
-      <c r="P8" s="3"/>
+      <c r="P8" s="6"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -1063,9 +1081,9 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5">
         <v>0.87823894</v>
@@ -1109,7 +1127,7 @@
       <c r="O9" s="5">
         <v>0.50693</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="6"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -1127,9 +1145,9 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5">
         <v>0.087611569</v>
@@ -1173,7 +1191,7 @@
       <c r="O10" s="5">
         <v>0.093148</v>
       </c>
-      <c r="P10" s="3"/>
+      <c r="P10" s="6"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -1191,9 +1209,9 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5">
         <v>0.00029950049</v>
@@ -1237,7 +1255,7 @@
       <c r="O11" s="5">
         <v>0.00027638</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="6"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -1255,9 +1273,9 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" s="5">
         <v>0.42896949</v>
@@ -1301,7 +1319,7 @@
       <c r="O12" s="5">
         <v>0.71458</v>
       </c>
-      <c r="P12" s="3"/>
+      <c r="P12" s="6"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -1319,9 +1337,9 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5">
         <v>0.70828452</v>
@@ -1365,7 +1383,7 @@
       <c r="O13" s="5">
         <v>0.87252</v>
       </c>
-      <c r="P13" s="3"/>
+      <c r="P13" s="6"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -1383,9 +1401,9 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5">
         <v>-0.017391823</v>
@@ -1429,7 +1447,7 @@
       <c r="O14" s="5">
         <v>-0.015077</v>
       </c>
-      <c r="P14" s="3"/>
+      <c r="P14" s="6"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -1447,9 +1465,9 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5">
         <v>-0.37626522</v>
@@ -1493,7 +1511,7 @@
       <c r="O15" s="5">
         <v>-0.40645</v>
       </c>
-      <c r="P15" s="3"/>
+      <c r="P15" s="6"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -1511,9 +1529,9 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5">
         <v>0.011605284</v>
@@ -1557,7 +1575,7 @@
       <c r="O16" s="5">
         <v>-0.11701</v>
       </c>
-      <c r="P16" s="3"/>
+      <c r="P16" s="6"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -1575,9 +1593,9 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" s="5">
         <v>-0.089550567</v>
@@ -1621,7 +1639,7 @@
       <c r="O17" s="5">
         <v>-0.13062</v>
       </c>
-      <c r="P17" s="3"/>
+      <c r="P17" s="6"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -1639,9 +1657,9 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="5">
         <v>-0.030063991</v>
@@ -1685,7 +1703,7 @@
       <c r="O18" s="5">
         <v>-0.022952</v>
       </c>
-      <c r="P18" s="3"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
